--- a/data/trans_bre/P2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6,43</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-0,79</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>-0,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 6,1</t>
+          <t>-4,08; 4,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 14,08</t>
+          <t>0,49; 26,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 7,54</t>
+          <t>-2,39; 22,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 7,42</t>
+          <t>-2,2; 28,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 6,66</t>
+          <t>-4,54; 3,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 17,54</t>
+          <t>-4,24; 5,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 8,59</t>
+          <t>0,53; 38,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 8,49</t>
+          <t>-2,61; 30,67</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 42,0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 3,8</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-1,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 3,21</t>
+          <t>-5,22; 1,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 17,93</t>
+          <t>-5,17; 3,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 1,57</t>
+          <t>-6,16; 4,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 2,27</t>
+          <t>-7,65; 3,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 3,43</t>
+          <t>-2,91; 7,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 21,95</t>
+          <t>-5,28; 1,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 1,66</t>
+          <t>-5,26; 3,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 2,41</t>
+          <t>-6,4; 4,34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-7,78; 4,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 8,41</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>11,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,75%</t>
+          <t>-2,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-0,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>13,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 4,24</t>
+          <t>-12,6; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 0,02</t>
+          <t>-10,16; 5,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 11,63</t>
+          <t>-2,59; 31,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 16,24</t>
+          <t>-0,39; 39,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 4,45</t>
+          <t>-19,09; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -0,07</t>
+          <t>-12,6; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 14,1</t>
+          <t>-10,23; 5,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 20,58</t>
+          <t>-2,74; 47,34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 66,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-19,09; 0,0</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 3,13</t>
+          <t>-3,57; 1,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,95</t>
+          <t>-0,88; 13,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 3,0</t>
+          <t>-1,03; 13,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 3,51</t>
+          <t>-1,06; 16,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,34</t>
+          <t>-3,09; 3,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 10,46</t>
+          <t>-3,63; 1,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 3,28</t>
+          <t>-0,92; 16,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 3,95</t>
+          <t>-1,14; 16,85</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 21,4</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 3,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,99</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,43</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,1%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,68%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,81%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.09190970823444999</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.231114016723074</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.417496792443442</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.962989183162248</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.6480259460972193</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.000965501027790361</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1088005622579407</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.05017194560382876</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.06884109543898327</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.006697008745118754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 4,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 26,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 22,41</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,2; 28,53</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,54; 3,63</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 5,24</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 38,56</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,61; 30,67</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 42,0</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 3,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.076293970216295</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.336144177333896</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.837549526796986</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.145692675260195</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.490228541384599</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.04235573202915661</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.0145727615973782</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.03046360818550743</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.02342222992633088</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.04521363332090932</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.890963013380665</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.79999752191463</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.19152228777162</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.23489024016148</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.722052728609262</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.05237822824450098</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.328082029832575</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2483989772949869</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.3789362159092989</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.03998263028646057</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,78</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,87%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,93%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-0,69%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-1,87%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-5,22; 1,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 3,46</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,16; 4,05</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 3,98</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 7,45</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 1,87</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,26; 3,67</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-6,4; 4,34</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 4,32</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 8,41</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.840990952504995</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2105567420847776</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1202770780601381</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.291288676627633</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.774948189925618</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.01873627342584801</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.002192275880234747</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.001266563195767869</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.01360952096257161</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.01876729942695066</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,58</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,75</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,31</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-2,6%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,02%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20,87%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-3,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.223658104035573</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.719058880286473</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.66821592776065</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.176992460825328</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.684629836183834</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.0528022814428987</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.04800810266188858</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.05797930494536542</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.07470757902693022</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.02711131898192603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 5,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 31,25</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,39; 39,31</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-19,09; 0,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; 0,0</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 5,66</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 47,34</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 66,58</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-19,09; 0,0</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.844668003374714</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.511973726461853</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.455113543000135</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.624877778131083</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.829661459902921</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.01873226001872788</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.06003453628006553</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.05960265240401103</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.0504668472415928</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.075232971823469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,16</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,15%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,78%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.595539926867718</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.7190561162250364</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>13.17078343710476</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>17.69983380005104</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-3.43884366046846</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.02595539926867718</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.00740260821529451</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1584714675102633</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2216908604034798</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.0343884366046846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 1,79</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 13,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 13,74</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 16,39</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 3,13</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 1,86</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 16,83</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 16,85</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 21,4</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 3,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.59502357029209</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.496758511224437</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.627292868994455</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.511885774099881</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-18.46047903972737</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1259502357029209</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.04531967392631758</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.03639124775730711</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.01395004941983456</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1846047903972737</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.30645707821583</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>33.64700412077808</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>39.88990139990545</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.127976121906699</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5222781728629655</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.6693962986691788</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.1184045632183</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.367444515593233</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.307210706434605</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.136227798495451</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.01090983730328565</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.01153352662049148</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.048104288629359</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.03654528746730776</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.04628128210576356</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0001133308540903161</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.568273981680573</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3151893051411201</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.461428256793808</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.065418790379148</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-3.00615473840393</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.03628195744123184</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.003136241020734304</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.01556162808698888</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.01174472708720488</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.03076749170794901</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.785292340388813</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.2678017714201</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.09440407678788</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.86769960038906</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.134522433038148</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.0185782769995833</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.147334438744694</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1321442380323787</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1888396193310347</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03306159767572801</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
